--- a/Metrics.xlsx
+++ b/Metrics.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NE26589\Documents\DOW\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9053237-D23E-459F-B39F-16F5B5ABF39A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{364873D2-6343-4417-9DE9-2A6154D9E195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24120" windowHeight="10410" activeTab="2" xr2:uid="{690A964A-D545-4E97-BE14-EC54121EDD97}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24120" windowHeight="10410" activeTab="3" xr2:uid="{690A964A-D545-4E97-BE14-EC54121EDD97}"/>
   </bookViews>
   <sheets>
     <sheet name="WAV Microzone Report" sheetId="1" r:id="rId1"/>
     <sheet name="WAV System Health Report" sheetId="2" r:id="rId2"/>
-    <sheet name="Logo" sheetId="3" r:id="rId3"/>
+    <sheet name="Wav reports List" sheetId="4" r:id="rId3"/>
+    <sheet name="SP Link" sheetId="5" r:id="rId4"/>
+    <sheet name="Logo" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
   <si>
     <t>Metric</t>
   </si>
@@ -156,15 +158,126 @@
   <si>
     <t>Count(Blufi ID)</t>
   </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>Server</t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>Workspace</t>
+  </si>
+  <si>
+    <t>Semantic Model Name</t>
+  </si>
+  <si>
+    <t>Report Name</t>
+  </si>
+  <si>
+    <t>wav2dw</t>
+  </si>
+  <si>
+    <t>sws-nc-rgd0002691-wav2-dev.sql.azuresynapse.net</t>
+  </si>
+  <si>
+    <t>DEV</t>
+  </si>
+  <si>
+    <t>Test - Worker &amp; Asset Visbility</t>
+  </si>
+  <si>
+    <t>DEV_WAV Model 2691</t>
+  </si>
+  <si>
+    <t>DEV_WAV Reports</t>
+  </si>
+  <si>
+    <t>DEV_WAV System Health Model 2691</t>
+  </si>
+  <si>
+    <t>DEV_WAV System Health Report</t>
+  </si>
+  <si>
+    <t>DEV_WAV Microzone Model 2691</t>
+  </si>
+  <si>
+    <t>DEV_WAV Microzone Report</t>
+  </si>
+  <si>
+    <t>sws-nc-rgp0002702-wav2-prod.sql.azuresynapse.net</t>
+  </si>
+  <si>
+    <t>PROD</t>
+  </si>
+  <si>
+    <t>BETA TEST_WAV Model 2691</t>
+  </si>
+  <si>
+    <t>BETA TEST_WAV Reports</t>
+  </si>
+  <si>
+    <t>BETA TEST_WAV System Health Model</t>
+  </si>
+  <si>
+    <t>BETA TEST_WAV System Health Report</t>
+  </si>
+  <si>
+    <t>BETA TEST_WAV Microzone Model</t>
+  </si>
+  <si>
+    <t>BETA TEST_WAV Microzone Report</t>
+  </si>
+  <si>
+    <t>Worker Visbility</t>
+  </si>
+  <si>
+    <t>WAV Model 2702</t>
+  </si>
+  <si>
+    <t>WAV Reports</t>
+  </si>
+  <si>
+    <t>WAV System Health Model</t>
+  </si>
+  <si>
+    <t>WAV System Health Report</t>
+  </si>
+  <si>
+    <t>WAV Microzone Model</t>
+  </si>
+  <si>
+    <t>WAV Microzone Report</t>
+  </si>
+  <si>
+    <t>https://workspaces.bsnconnect.com/teams/Worker_and_Asset_Visibility_Team_of_Teams/Shared%20Documents/Forms/AllItems.aspx?id=%2Fteams%2FWorker%5Fand%5FAsset%5FVisibility%5FTeam%5Fof%5FTeams%2FShared%20Documents%2FMSFT%20Custom%20Geospatial%20Visualization%20Project%2FPower%20BI%2FWAV%20Reports%20v2&amp;sortField=LinkFilename&amp;isAscending=false&amp;viewid=159cac81%2D0219%2D44e8%2D8b5c%2D5fd304aef1f5&amp;csf=1&amp;web=1&amp;e=LYNe5C&amp;CID=d8943a6c%2D12f3%2D4333%2D947b%2D99e95c5c5c4d&amp;FolderCTID=0x012000380F4BC52C82BC449AF5FACDD9E22198</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -178,7 +291,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -186,14 +299,79 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -644,7 +822,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69DAE750-6CD2-48B3-B3D9-7BC11FC77333}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -723,11 +901,220 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC306835-DBEE-4AAC-BFDE-01FB8ADF7147}">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB31A412-4C6E-4F44-BF44-CBEF4096F1DB}">
+  <dimension ref="A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8DD9F16-3494-444E-8DA9-46941E4606FC}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Metrics.xlsx
+++ b/Metrics.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NE26589\Documents\DOW\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{364873D2-6343-4417-9DE9-2A6154D9E195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D1C512-5626-4FCB-8ED2-564710E7F3CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24120" windowHeight="10410" activeTab="3" xr2:uid="{690A964A-D545-4E97-BE14-EC54121EDD97}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24120" windowHeight="10410" activeTab="2" xr2:uid="{690A964A-D545-4E97-BE14-EC54121EDD97}"/>
   </bookViews>
   <sheets>
     <sheet name="WAV Microzone Report" sheetId="1" r:id="rId1"/>
     <sheet name="WAV System Health Report" sheetId="2" r:id="rId2"/>
-    <sheet name="Wav reports List" sheetId="4" r:id="rId3"/>
-    <sheet name="SP Link" sheetId="5" r:id="rId4"/>
-    <sheet name="Logo" sheetId="3" r:id="rId5"/>
+    <sheet name="WAV Reports" sheetId="6" r:id="rId3"/>
+    <sheet name="Wav reports List" sheetId="4" r:id="rId4"/>
+    <sheet name="SP Link" sheetId="5" r:id="rId5"/>
+    <sheet name="Logo" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="91">
   <si>
     <t>Metric</t>
   </si>
@@ -153,12 +154,6 @@
     <t xml:space="preserve">Blufi Count </t>
   </si>
   <si>
-    <t>Total Blufi</t>
-  </si>
-  <si>
-    <t>Count(Blufi ID)</t>
-  </si>
-  <si>
     <t>Database</t>
   </si>
   <si>
@@ -253,6 +248,193 @@
   </si>
   <si>
     <t>https://workspaces.bsnconnect.com/teams/Worker_and_Asset_Visibility_Team_of_Teams/Shared%20Documents/Forms/AllItems.aspx?id=%2Fteams%2FWorker%5Fand%5FAsset%5FVisibility%5FTeam%5Fof%5FTeams%2FShared%20Documents%2FMSFT%20Custom%20Geospatial%20Visualization%20Project%2FPower%20BI%2FWAV%20Reports%20v2&amp;sortField=LinkFilename&amp;isAscending=false&amp;viewid=159cac81%2D0219%2D44e8%2D8b5c%2D5fd304aef1f5&amp;csf=1&amp;web=1&amp;e=LYNe5C&amp;CID=d8943a6c%2D12f3%2D4333%2D947b%2D99e95c5c5c4d&amp;FolderCTID=0x012000380F4BC52C82BC449AF5FACDD9E22198</t>
+  </si>
+  <si>
+    <t>GPSMatch_No_Count = 
+CALCULATE(
+    DISTINCTCOUNT(DimBlufi[Blufi Name]),
+    DimBlufi[GPS Match] = "No"
+)</t>
+  </si>
+  <si>
+    <t>Count of GPS Mismatched</t>
+  </si>
+  <si>
+    <t>GPSMatch_Yes_Count = 
+CALCULATE(
+    DISTINCTCOUNT(DimBlufi[Blufi Name]),
+    DimBlufi[GPS Match] = "Yes"
+)</t>
+  </si>
+  <si>
+    <t>Count of GPS Matched</t>
+  </si>
+  <si>
+    <t>GPSMatch_Selected_Count = 
+DISTINCTCOUNT(DimBlufi[Blufi Name])</t>
+  </si>
+  <si>
+    <t>Count of all GPS</t>
+  </si>
+  <si>
+    <t>Filtered Detail Hours2 = 
+VAR _StartTime = 
+    CALCULATE ( MIN(StartDate[Date] ), ALLSELECTED(StartDate)) + CALCULATE ( MIN(StartTime[Time] ), ALLSELECTED(StartTime))
+VAR _EndTime = 
+    CALCULATE ( MAX(EndDate[Date] ), ALLSELECTED(EndDate)) + CALCULATE ( MAX(EndTime[Time] ), ALLSELECTED(EndTime))
+VAR _InSlice = SUMX(FILTER(FactBeaconTime, FactBeaconTime[Min Event Datetime] &gt;= _StartTime &amp;&amp; FactBeaconTime[Max Event Datetime] &lt;= _EndTime), FactBeaconTime[Total Hours])
+VAR _OutSlice = SUMX(FILTER(FactBeaconTime, FactBeaconTime[Min Event Datetime] &gt;= _StartTime &amp;&amp; FactBeaconTime[Min Event Datetime] &lt; _EndTime &amp;&amp; FactBeaconTime[Max Event Datetime] &gt; _EndTime), FactBeaconTime[Total Hours] - (DATEDIFF(_EndTime, FactBeaconTime[Max Event Datetime], MINUTE ))/60)
+RETURN 
+    _InSlice + _OutSlice</t>
+  </si>
+  <si>
+    <t>Detail Hours</t>
+  </si>
+  <si>
+    <t>WA Hrs by Slice = 
+DIVIDE(CALCULATE(SUM(FactBeaconTime[Total Hours]), DimColorKey[Policy Category] = "Work Area"), CALCULATE(SUM(FactBeaconTime[Total Hours]), REMOVEFILTERS(DimColorKey[Policy Category])))</t>
+  </si>
+  <si>
+    <t>Selected Beacon Site = IF(HASONEVALUE(DimSite[Site Name]), VALUES(DimSite[Site Name]), "Multiple sites selected...")</t>
+  </si>
+  <si>
+    <t>Selected Beacon Site</t>
+  </si>
+  <si>
+    <t>Selected Turnaround = IF(HASONEVALUE(DimPolicy[Turnaround Name]), VALUES(DimPolicy[Turnaround Name]) &amp; ": " &amp; VALUES(DimPolicy[Prime Off Date]) &amp; " - " &amp; VALUES(DimPolicy[Prime On Date]), "Multiple TOs selected...")</t>
+  </si>
+  <si>
+    <t>Selected Turnaround Names</t>
+  </si>
+  <si>
+    <t>Selected Beacon/Company = 
+var sel_site = IF(HASONEVALUE(DimSite[Site Name]), VALUES(DimSite[Site Name]), "Multiple sites selected...")
+var sel_company = IF(HASONEVALUE(DimRole[Company]), VALUES(DimRole[Company]), "multiple companies selected...")
+RETURN
+sel_site &amp; ", " &amp; sel_company</t>
+  </si>
+  <si>
+    <t>Selected Beacon/Company</t>
+  </si>
+  <si>
+    <t>Beacon Counts = 
+VAR _StartTime = 
+    CALCULATE ( MIN(StartDate[Date] ), ALLSELECTED(StartDate)) + CALCULATE ( MIN(StartTime[Time] ), ALLSELECTED(StartTime))
+VAR _EndTime = 
+    CALCULATE ( MAX(EndDate[Date] ), ALLSELECTED(StartDate)) + CALCULATE ( MAX(EndTime[Time] ), ALLSELECTED(StartTime))
+RETURN 
+    CALCULATE ( 
+        DISTINCTCOUNT(FactBeaconTime[Beacon Label]), 
+        FactBeaconTime[Local Slice Start] &gt;= _StartTime
+            &amp;&amp; FactBeaconTime[Local Slice Start] &lt; _EndTime)</t>
+  </si>
+  <si>
+    <t>Total Beacons Selected</t>
+  </si>
+  <si>
+    <t>Time Text = 
+VAR _StartTime = 
+    CALCULATE ( MIN(StartDate[Date] ), ALLSELECTED(StartDate)) + CALCULATE ( MIN(StartTime[Time] ), ALLSELECTED(StartTime))
+VAR _EndTime = 
+    CALCULATE ( MAX(EndDate[Date] ), ALLSELECTED(StartDate)) + CALCULATE ( MAX(EndTime[Time] ), ALLSELECTED(StartTime))
+RETURN
+    "Selected Date/Time Range: " &amp; SELECTEDVALUE (StartTime[TextTime]) &amp; " " &amp; SELECTEDVALUE(StartDate[Date]) &amp; " - " &amp; SELECTEDVALUE (EndTime[TextTime]) &amp; " " &amp; SELECTEDVALUE(EndDate[Date])</t>
+  </si>
+  <si>
+    <t>Selected Date/Time Range</t>
+  </si>
+  <si>
+    <t>WA Hrs = 
+VAR _StartTime = 
+    CALCULATE ( MIN(StartDate[Date] ), ALLSELECTED(StartDate)) + CALCULATE ( MIN(StartTime[Time] ), ALLSELECTED(StartTime))
+VAR _EndTime = 
+    CALCULATE ( MAX(EndDate[Date] ), ALLSELECTED(StartDate)) + CALCULATE ( MAX(EndTime[Time] ), ALLSELECTED(StartTime))
+RETURN 
+    CALCULATE ([Filtered Detail Hours2], DimColorKey[Policy Category] = "Work Area")</t>
+  </si>
+  <si>
+    <t>WA % = IF([Filtered Detail Hours] = 0 || [WA Hrs] = 0, BLANK(), [WA Hrs]/[Filtered Detail Hours])</t>
+  </si>
+  <si>
+    <t>Inc Hrs = 
+VAR _StartTime = 
+    CALCULATE ( MIN(StartDate[Date] ), ALLSELECTED(StartDate)) + CALCULATE ( MIN(StartTime[Time] ), ALLSELECTED(StartTime))
+VAR _EndTime = 
+    CALCULATE ( MAX(EndDate[Date] ), ALLSELECTED(StartDate)) + CALCULATE ( MAX(EndTime[Time] ), ALLSELECTED(StartTime))
+RETURN 
+    CALCULATE ([Filtered Detail Hours2], DimColorKey[Policy Category] = "Incidental")</t>
+  </si>
+  <si>
+    <t>Inc % = IF([Filtered Detail Hours] = 0 || [Inc Hrs] = 0, BLANK(), [Inc Hrs]/[Filtered Detail Hours])</t>
+  </si>
+  <si>
+    <t>NG Hrs = 
+VAR _StartTime = 
+    CALCULATE ( MIN(StartDate[Date] ), ALLSELECTED(StartDate)) + CALCULATE ( MIN(StartTime[Time] ), ALLSELECTED(StartTime))
+VAR _EndTime = 
+    CALCULATE ( MAX(EndDate[Date] ), ALLSELECTED(StartDate)) + CALCULATE ( MAX(EndTime[Time] ), ALLSELECTED(StartTime))
+RETURN 
+    CALCULATE ([Filtered Detail Hours2], DimColorKey[Policy Category] = "No Geofence")</t>
+  </si>
+  <si>
+    <t>Work Area Hours</t>
+  </si>
+  <si>
+    <t>Work Area Percentage</t>
+  </si>
+  <si>
+    <t>Incidental Hours</t>
+  </si>
+  <si>
+    <t>Incidental Percentage</t>
+  </si>
+  <si>
+    <t>No Geofence Hours</t>
+  </si>
+  <si>
+    <t>NG % = IF([Filtered Detail Hours] = 0 || [NG Hrs] = 0, BLANK(), [NG Hrs]/[Filtered Detail Hours])</t>
+  </si>
+  <si>
+    <t>No Geofence Percentage</t>
+  </si>
+  <si>
+    <t>OOR Hrs = 
+VAR _StartTime = 
+    CALCULATE ( MIN(StartDate[Date] ), ALLSELECTED(StartDate)) + CALCULATE ( MIN(StartTime[Time] ), ALLSELECTED(StartTime))
+VAR _EndTime = 
+    CALCULATE ( MAX(EndDate[Date] ), ALLSELECTED(StartDate)) + CALCULATE ( MAX(EndTime[Time] ), ALLSELECTED(StartTime))
+RETURN 
+    CALCULATE ([Filtered Detail Hours2], DimColorKey[Policy Category] = "Out of Range")</t>
+  </si>
+  <si>
+    <t>Out of Range Hours</t>
+  </si>
+  <si>
+    <t>OOR % = IF([Filtered Detail Hours] = 0 || [WA Hrs] = 0, BLANK(), [OOR Hrs]/[Filtered Detail Hours])</t>
+  </si>
+  <si>
+    <t>Out of Range Percentage</t>
+  </si>
+  <si>
+    <t>Gate Hrs = 
+VAR _StartTime = 
+    CALCULATE ( MIN(StartDate[Date] ), ALLSELECTED(StartDate)) + CALCULATE ( MIN(StartTime[Time] ), ALLSELECTED(StartTime))
+VAR _EndTime = 
+    CALCULATE ( MAX(EndDate[Date] ), ALLSELECTED(StartDate)) + CALCULATE ( MAX(EndTime[Time] ), ALLSELECTED(StartTime))
+RETURN 
+    CALCULATE ([Filtered Detail Hours2], DimColorKey[Policy Category] = "Gate")</t>
+  </si>
+  <si>
+    <t>Gate Hours</t>
+  </si>
+  <si>
+    <t>Gate % = IF([Filtered Detail Hours] = 0 || [Gate Hrs] = 0, BLANK(), [Gate Hrs]/[Filtered Detail Hours])</t>
+  </si>
+  <si>
+    <t>Gate Percentage</t>
+  </si>
+  <si>
+    <t>Work Area Hours by Category</t>
   </si>
 </sst>
 </file>
@@ -820,10 +1002,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69DAE750-6CD2-48B3-B3D9-7BC11FC77333}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -884,12 +1066,28 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -901,6 +1099,176 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C375061D-2216-4602-B8C4-6FEE1E13BBAD}">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66.85546875" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="212.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="210" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="195" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="180" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="180" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="180" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="180" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="180" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General Business</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC306835-DBEE-4AAC-BFDE-01FB8ADF7147}">
   <dimension ref="A1:F10"/>
   <sheetViews>
@@ -920,42 +1288,42 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -964,10 +1332,10 @@
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -976,30 +1344,30 @@
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1008,10 +1376,10 @@
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1020,30 +1388,30 @@
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1052,10 +1420,10 @@
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1064,10 +1432,10 @@
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1089,11 +1457,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB31A412-4C6E-4F44-BF44-CBEF4096F1DB}">
   <dimension ref="A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -1101,7 +1469,7 @@
   <sheetData>
     <row r="2" spans="1:1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1109,7 +1477,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8DD9F16-3494-444E-8DA9-46941E4606FC}">
   <dimension ref="A1"/>
   <sheetViews>
